--- a/overall/data/Aircraft Databank v2.xlsx
+++ b/overall/data/Aircraft Databank v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\overall\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667F50C0-D9A0-4760-90F1-F40059CEA313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A83193E-FC02-4B73-89BA-C524FF326D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="9750" windowHeight="10155" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Table" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="314">
   <si>
     <t>Company</t>
   </si>
@@ -984,6 +984,21 @@
   </si>
   <si>
     <t xml:space="preserve">B767-200/ER/EM                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC9-40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC9-10                         </t>
+  </si>
+  <si>
+    <t>B707-300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC9-50                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1011-500                   </t>
   </si>
 </sst>
 </file>
@@ -1442,8 +1457,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R64"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
@@ -4005,18 +4020,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B7E994-12F2-4962-AF8C-42BF75C864FA}">
-  <dimension ref="A1:AA186"/>
+  <dimension ref="A1:AA189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="49" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X123" sqref="X123"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
     <col min="2" max="2" width="20.2265625" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="7" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="4" max="7" width="16.81640625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="16.08984375" customWidth="1"/>
     <col min="9" max="9" width="13.26953125" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
@@ -4059,9 +4074,7 @@
       <c r="J1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="21" t="s">
-        <v>276</v>
-      </c>
+      <c r="K1" s="21"/>
       <c r="L1" s="1" t="s">
         <v>269</v>
       </c>
@@ -14042,7 +14055,7 @@
         <v>16</v>
       </c>
       <c r="B181" t="s">
-        <v>51</v>
+        <v>312</v>
       </c>
       <c r="C181">
         <v>146</v>
@@ -14084,7 +14097,7 @@
         <v>53</v>
       </c>
       <c r="B182" t="s">
-        <v>54</v>
+        <v>313</v>
       </c>
       <c r="C182">
         <v>141</v>
@@ -14168,7 +14181,7 @@
         <v>16</v>
       </c>
       <c r="B184" t="s">
-        <v>59</v>
+        <v>309</v>
       </c>
       <c r="C184">
         <v>113</v>
@@ -14208,7 +14221,7 @@
         <v>28</v>
       </c>
       <c r="B185" t="s">
-        <v>62</v>
+        <v>310</v>
       </c>
       <c r="C185">
         <v>98</v>
@@ -14284,6 +14297,64 @@
         <v>102</v>
       </c>
       <c r="X186" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24">
+      <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I187" s="5">
+        <v>15.8095</v>
+      </c>
+      <c r="J187" s="5">
+        <v>0.41126000000000001</v>
+      </c>
+      <c r="W187" t="s">
+        <v>102</v>
+      </c>
+      <c r="X187" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24">
+      <c r="A188" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H188" s="5">
+        <v>28.176500000000001</v>
+      </c>
+      <c r="I188" s="5">
+        <v>15.8095</v>
+      </c>
+      <c r="J188" s="5"/>
+      <c r="W188" t="s">
+        <v>102</v>
+      </c>
+      <c r="X188" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24">
+      <c r="A189" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H189" s="5">
+        <v>27.027799999999999</v>
+      </c>
+      <c r="W189" t="s">
+        <v>102</v>
+      </c>
+      <c r="X189" t="s">
         <v>254</v>
       </c>
     </row>

--- a/overall/data/Aircraft Databank v2.xlsx
+++ b/overall/data/Aircraft Databank v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\overall\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF7838B-EBF1-4275-8B86-3001056F909B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D6AB34-D24A-442D-A891-9F72A40EE13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="313">
   <si>
     <t>Company</t>
   </si>
@@ -4020,8 +4020,8 @@
   <dimension ref="A1:Y189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
@@ -4165,6 +4165,9 @@
       <c r="T2" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="U2" t="s">
+        <v>177</v>
+      </c>
       <c r="V2" t="s">
         <v>102</v>
       </c>
@@ -4215,6 +4218,9 @@
       <c r="T3" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="U3" t="s">
+        <v>177</v>
+      </c>
       <c r="V3" t="s">
         <v>102</v>
       </c>
@@ -4265,6 +4271,9 @@
       <c r="T4" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="U4" t="s">
+        <v>177</v>
+      </c>
       <c r="V4" t="s">
         <v>102</v>
       </c>
@@ -4314,6 +4323,9 @@
       </c>
       <c r="T5" s="7" t="s">
         <v>100</v>
+      </c>
+      <c r="U5" t="s">
+        <v>177</v>
       </c>
       <c r="V5" t="s">
         <v>102</v>
@@ -13537,6 +13549,9 @@
       <c r="B187" s="5" t="s">
         <v>310</v>
       </c>
+      <c r="C187" s="3">
+        <v>1959</v>
+      </c>
       <c r="G187" s="5">
         <v>15.8095</v>
       </c>
@@ -13557,6 +13572,9 @@
       <c r="B188" s="5" t="s">
         <v>90</v>
       </c>
+      <c r="C188" s="3">
+        <v>1959</v>
+      </c>
       <c r="F188" s="5">
         <v>28.176500000000001</v>
       </c>
@@ -13577,6 +13595,9 @@
       </c>
       <c r="B189" s="5" t="s">
         <v>91</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1961</v>
       </c>
       <c r="F189" s="5">
         <v>27.027799999999999</v>

--- a/overall/data/Aircraft Databank v2.xlsx
+++ b/overall/data/Aircraft Databank v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\overall\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D6AB34-D24A-442D-A891-9F72A40EE13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C421A6D5-8E53-4440-9E45-F7F31B51205F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
+    <workbookView xWindow="-110" yWindow="-21710" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Table" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="311">
   <si>
     <t>Company</t>
   </si>
@@ -539,9 +539,6 @@
     <t>R-R Tay Mk 620-15</t>
   </si>
   <si>
-    <t>PW1100G</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Airbus_A320neo_family</t>
   </si>
   <si>
@@ -794,12 +791,6 @@
     <t>CF34-8E5</t>
   </si>
   <si>
-    <t>JT8D-1/7</t>
-  </si>
-  <si>
-    <t>PW1100G-JM</t>
-  </si>
-  <si>
     <t>Tay Mk 620-15</t>
   </si>
   <si>
@@ -996,6 +987,9 @@
   </si>
   <si>
     <t xml:space="preserve">L1011-500                   </t>
+  </si>
+  <si>
+    <t>JT8D-1</t>
   </si>
 </sst>
 </file>
@@ -1495,22 +1489,22 @@
         <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
@@ -1523,7 +1517,7 @@
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -1554,7 +1548,7 @@
         <v>102</v>
       </c>
       <c r="I2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J2" t="s">
         <v>102</v>
@@ -1580,7 +1574,7 @@
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="S2" s="1"/>
     </row>
@@ -1632,10 +1626,10 @@
         <v>0.51794117647058824</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="R3" t="s">
         <v>275</v>
-      </c>
-      <c r="R3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1664,7 +1658,7 @@
         <v>102</v>
       </c>
       <c r="I4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J4" t="s">
         <v>102</v>
@@ -1689,10 +1683,10 @@
         <v>0.50289123451124373</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="R4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1744,7 +1738,7 @@
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1795,10 +1789,10 @@
         <v>0.5078125</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="R6" t="s">
         <v>275</v>
-      </c>
-      <c r="R6" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.4" hidden="1" customHeight="1">
@@ -1821,10 +1815,10 @@
         <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="18"/>
@@ -1834,7 +1828,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="1"/>
       <c r="R7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.4" hidden="1" customHeight="1">
@@ -1857,10 +1851,10 @@
         <v>102</v>
       </c>
       <c r="I8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -1869,7 +1863,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="1"/>
       <c r="R8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1921,7 +1915,7 @@
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1970,10 +1964,10 @@
         <v>0.51071428571428568</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="R10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -2002,7 +1996,7 @@
         <v>102</v>
       </c>
       <c r="I11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J11" t="s">
         <v>102</v>
@@ -2025,10 +2019,10 @@
         <v>0.45185185185185184</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.4" hidden="1" customHeight="1">
@@ -2051,10 +2045,10 @@
         <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="18">
@@ -2067,7 +2061,7 @@
       </c>
       <c r="P12" s="13"/>
       <c r="R12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -2116,7 +2110,7 @@
         <v>0.53788235294117648</v>
       </c>
       <c r="R13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.4" hidden="1" customHeight="1">
@@ -2139,10 +2133,10 @@
         <v>102</v>
       </c>
       <c r="I14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
@@ -2150,7 +2144,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="13"/>
       <c r="R14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.4" hidden="1" customHeight="1">
@@ -2173,7 +2167,7 @@
         <v>102</v>
       </c>
       <c r="J15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="18"/>
@@ -2181,7 +2175,7 @@
       <c r="N15" s="18"/>
       <c r="P15" s="13"/>
       <c r="R15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -2231,7 +2225,7 @@
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.4" hidden="1" customHeight="1">
@@ -2254,10 +2248,10 @@
         <v>102</v>
       </c>
       <c r="I17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="17"/>
@@ -2265,7 +2259,7 @@
       <c r="N17" s="17"/>
       <c r="P17" s="13"/>
       <c r="R17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2294,7 +2288,7 @@
         <v>102</v>
       </c>
       <c r="I18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J18" t="s">
         <v>102</v>
@@ -2319,7 +2313,7 @@
         <v>0.51175778953556728</v>
       </c>
       <c r="R18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2366,10 +2360,10 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="Q19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2420,7 +2414,7 @@
         <v>0.52766308835672993</v>
       </c>
       <c r="R20" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2469,10 +2463,10 @@
         <v>0.48888888888888887</v>
       </c>
       <c r="Q21" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R21" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2521,7 +2515,7 @@
         <v>0.46002857142857145</v>
       </c>
       <c r="R22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.4" hidden="1" customHeight="1">
@@ -2544,7 +2538,7 @@
         <v>102</v>
       </c>
       <c r="J23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="18"/>
@@ -2552,7 +2546,7 @@
       <c r="N23" s="18"/>
       <c r="P23" s="13"/>
       <c r="R23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:18" hidden="1">
@@ -2575,10 +2569,10 @@
         <v>102</v>
       </c>
       <c r="I24" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="18"/>
@@ -2586,7 +2580,7 @@
       <c r="N24" s="18"/>
       <c r="P24" s="13"/>
       <c r="R24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2635,10 +2629,10 @@
         <v>0.49767062314540061</v>
       </c>
       <c r="Q25" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R25" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:18" hidden="1">
@@ -2661,7 +2655,7 @@
         <v>102</v>
       </c>
       <c r="J26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="17"/>
@@ -2669,7 +2663,7 @@
       <c r="N26" s="17"/>
       <c r="P26" s="13"/>
       <c r="R26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:18" hidden="1">
@@ -2692,10 +2686,10 @@
         <v>102</v>
       </c>
       <c r="I27" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="17"/>
@@ -2703,7 +2697,7 @@
       <c r="N27" s="17"/>
       <c r="P27" s="13"/>
       <c r="R27" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2754,7 +2748,7 @@
         <v>0.52643504531722052</v>
       </c>
       <c r="R28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:18" hidden="1">
@@ -2777,10 +2771,10 @@
         <v>102</v>
       </c>
       <c r="I29" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="17"/>
@@ -2788,7 +2782,7 @@
       <c r="N29" s="17"/>
       <c r="P29" s="13"/>
       <c r="R29" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:18" hidden="1">
@@ -2811,7 +2805,7 @@
         <v>102</v>
       </c>
       <c r="J30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="17"/>
@@ -2819,7 +2813,7 @@
       <c r="N30" s="17"/>
       <c r="P30" s="13"/>
       <c r="R30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:18" hidden="1">
@@ -2842,10 +2836,10 @@
         <v>102</v>
       </c>
       <c r="I31" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="17">
@@ -2863,10 +2857,10 @@
         <v>0.50209230769230773</v>
       </c>
       <c r="Q31" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="R31" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:18" hidden="1">
@@ -2889,10 +2883,10 @@
         <v>102</v>
       </c>
       <c r="I32" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="17"/>
@@ -2900,7 +2894,7 @@
       <c r="N32" s="17"/>
       <c r="P32" s="13"/>
       <c r="R32" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:18" hidden="1">
@@ -2923,17 +2917,17 @@
         <v>102</v>
       </c>
       <c r="I33" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
       <c r="P33" s="13"/>
       <c r="R33" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2982,7 +2976,7 @@
         <v>0.55853777333435872</v>
       </c>
       <c r="R34" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3031,10 +3025,10 @@
         <v>0.54390243902439028</v>
       </c>
       <c r="Q35" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="R35" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3083,7 +3077,7 @@
         <v>0.5161677344205009</v>
       </c>
       <c r="R36" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:18" hidden="1">
@@ -3106,10 +3100,10 @@
         <v>102</v>
       </c>
       <c r="I37" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
@@ -3159,7 +3153,7 @@
         <v>102</v>
       </c>
       <c r="J39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
@@ -3207,7 +3201,7 @@
         <v>0.53449940785278305</v>
       </c>
       <c r="R40" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:18" hidden="1">
@@ -3272,7 +3266,7 @@
         <v>0.47982985492711772</v>
       </c>
       <c r="R42" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:18" hidden="1">
@@ -3295,7 +3289,7 @@
         <v>102</v>
       </c>
       <c r="J43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
@@ -3369,7 +3363,7 @@
         <v>0.48687158383119361</v>
       </c>
       <c r="R45" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:18" hidden="1">
@@ -3392,7 +3386,7 @@
         <v>102</v>
       </c>
       <c r="J46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
@@ -3437,7 +3431,7 @@
         <v>0.53801972539160703</v>
       </c>
       <c r="R47" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:18" hidden="1">
@@ -3460,10 +3454,10 @@
         <v>102</v>
       </c>
       <c r="I48" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
@@ -3529,7 +3523,7 @@
         <v>0.54203835589800931</v>
       </c>
       <c r="R50" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:18" hidden="1">
@@ -3685,10 +3679,10 @@
         <v>102</v>
       </c>
       <c r="I58" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P58" s="13"/>
     </row>
@@ -3712,7 +3706,7 @@
         <v>102</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P59" s="13"/>
     </row>
@@ -3793,7 +3787,7 @@
         <v>102</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P63" s="13"/>
     </row>
@@ -3839,10 +3833,10 @@
         <v>0.50365853658536586</v>
       </c>
       <c r="Q64" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R64" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:14" hidden="1">
@@ -3901,7 +3895,7 @@
         <v>102</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
@@ -4017,11 +4011,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B7E994-12F2-4962-AF8C-42BF75C864FA}">
-  <dimension ref="A1:Y189"/>
+  <dimension ref="A1:Y187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C190" sqref="C190"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M123" sqref="M123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
@@ -4050,10 +4044,10 @@
         <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>87</v>
@@ -4065,10 +4059,10 @@
         <v>85</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
@@ -4080,28 +4074,28 @@
         <v>98</v>
       </c>
       <c r="N1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="Q1" t="s">
-        <v>169</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V1" t="s">
         <v>101</v>
@@ -4130,7 +4124,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="6"/>
       <c r="I2" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J2" s="17">
         <v>189</v>
@@ -4148,25 +4142,25 @@
         <v>17.8</v>
       </c>
       <c r="O2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q2">
         <v>10.5</v>
       </c>
       <c r="R2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V2" t="s">
         <v>102</v>
@@ -4192,7 +4186,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="6"/>
       <c r="I3" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J3" s="17">
         <v>189</v>
@@ -4210,16 +4204,16 @@
         <v>17.059999999999999</v>
       </c>
       <c r="O3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T3" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V3" t="s">
         <v>102</v>
@@ -4245,7 +4239,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="6"/>
       <c r="I4" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J4" s="17">
         <v>189</v>
@@ -4257,22 +4251,22 @@
         <v>79015</v>
       </c>
       <c r="M4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q4">
         <v>10.8</v>
       </c>
       <c r="R4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T4" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V4" t="s">
         <v>102</v>
@@ -4298,7 +4292,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="6"/>
       <c r="I5" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J5" s="17">
         <v>189</v>
@@ -4310,22 +4304,22 @@
         <v>79015</v>
       </c>
       <c r="M5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N5">
         <v>17.059999999999999</v>
       </c>
       <c r="O5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V5" t="s">
         <v>102</v>
@@ -4351,7 +4345,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J6" s="16">
         <v>160</v>
@@ -4369,16 +4363,16 @@
         <v>9.1</v>
       </c>
       <c r="R6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="U6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V6" t="s">
         <v>102</v>
@@ -4404,7 +4398,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J7" s="16">
         <v>160</v>
@@ -4422,16 +4416,16 @@
         <v>16.87</v>
       </c>
       <c r="O7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="U7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V7" t="s">
         <v>102</v>
@@ -4457,7 +4451,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J8" s="16">
         <v>160</v>
@@ -4475,16 +4469,16 @@
         <v>9.1</v>
       </c>
       <c r="R8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="U8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V8" t="s">
         <v>102</v>
@@ -4510,7 +4504,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J9" s="16">
         <v>160</v>
@@ -4528,16 +4522,16 @@
         <v>16.98</v>
       </c>
       <c r="O9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="U9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V9" t="s">
         <v>102</v>
@@ -4563,7 +4557,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J10" s="16">
         <v>160</v>
@@ -4584,7 +4578,7 @@
         <v>115</v>
       </c>
       <c r="P10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q10">
         <v>9.6</v>
@@ -4593,13 +4587,13 @@
         <v>115</v>
       </c>
       <c r="S10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="U10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V10" t="s">
         <v>102</v>
@@ -4625,7 +4619,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J11" s="16">
         <v>160</v>
@@ -4643,16 +4637,16 @@
         <v>16.260000000000002</v>
       </c>
       <c r="O11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="U11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V11" t="s">
         <v>102</v>
@@ -4678,7 +4672,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J12" s="16">
         <v>160</v>
@@ -4696,16 +4690,16 @@
         <v>9.1</v>
       </c>
       <c r="R12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="U12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V12" t="s">
         <v>102</v>
@@ -4731,7 +4725,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J13" s="16">
         <v>160</v>
@@ -4749,16 +4743,16 @@
         <v>16.87</v>
       </c>
       <c r="O13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="U13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V13" t="s">
         <v>102</v>
@@ -4784,7 +4778,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J14" s="16">
         <v>160</v>
@@ -4802,16 +4796,16 @@
         <v>16.98</v>
       </c>
       <c r="O14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="U14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V14" t="s">
         <v>102</v>
@@ -4837,7 +4831,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J15" s="16">
         <v>160</v>
@@ -4855,16 +4849,16 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="R15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="U15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V15" t="s">
         <v>102</v>
@@ -4890,7 +4884,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J16" s="16">
         <v>160</v>
@@ -4911,13 +4905,13 @@
         <v>118</v>
       </c>
       <c r="S16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="U16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V16" t="s">
         <v>102</v>
@@ -4943,7 +4937,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J17" s="16">
         <v>160</v>
@@ -4961,16 +4955,16 @@
         <v>16.260000000000002</v>
       </c>
       <c r="O17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="U17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V17" t="s">
         <v>102</v>
@@ -4996,7 +4990,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="6"/>
       <c r="I18" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J18" s="17">
         <v>149</v>
@@ -5008,31 +5002,31 @@
         <v>60330</v>
       </c>
       <c r="M18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N18">
         <v>17.899999999999999</v>
       </c>
       <c r="O18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q18">
         <v>10.199999999999999</v>
       </c>
       <c r="R18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T18" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V18" t="s">
         <v>102</v>
@@ -5058,7 +5052,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="6"/>
       <c r="I19" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J19" s="17">
         <v>149</v>
@@ -5070,22 +5064,22 @@
         <v>60330</v>
       </c>
       <c r="M19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N19">
         <v>17.059999999999999</v>
       </c>
       <c r="O19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V19" t="s">
         <v>102</v>
@@ -5111,7 +5105,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="6"/>
       <c r="I20" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J20" s="17">
         <v>149</v>
@@ -5129,25 +5123,25 @@
         <v>17.8</v>
       </c>
       <c r="O20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q20">
         <v>10.5</v>
       </c>
       <c r="R20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T20" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V20" t="s">
         <v>102</v>
@@ -5173,7 +5167,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="6"/>
       <c r="I21" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J21" s="17">
         <v>149</v>
@@ -5191,16 +5185,16 @@
         <v>17.059999999999999</v>
       </c>
       <c r="O21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T21" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V21" t="s">
         <v>102</v>
@@ -5226,7 +5220,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J22" s="17">
         <v>406</v>
@@ -5244,25 +5238,25 @@
         <v>15.9</v>
       </c>
       <c r="O22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q22">
         <v>9.4</v>
       </c>
       <c r="R22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T22" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V22" t="s">
         <v>102</v>
@@ -5288,7 +5282,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J23" s="17">
         <v>406</v>
@@ -5306,16 +5300,16 @@
         <v>9.26</v>
       </c>
       <c r="R23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T23" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V23" t="s">
         <v>102</v>
@@ -5341,7 +5335,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J24" s="17">
         <v>406</v>
@@ -5359,16 +5353,16 @@
         <v>9.26</v>
       </c>
       <c r="R24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T24" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V24" t="s">
         <v>102</v>
@@ -5394,7 +5388,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J25" s="17">
         <v>406</v>
@@ -5412,16 +5406,16 @@
         <v>9.6</v>
       </c>
       <c r="R25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V25" t="s">
         <v>102</v>
@@ -5447,7 +5441,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J26" s="17">
         <v>406</v>
@@ -5465,16 +5459,16 @@
         <v>9.4</v>
       </c>
       <c r="R26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T26" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V26" t="s">
         <v>102</v>
@@ -5500,7 +5494,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J27" s="17">
         <v>406</v>
@@ -5518,7 +5512,7 @@
         <v>100</v>
       </c>
       <c r="U27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V27" t="s">
         <v>102</v>
@@ -5544,7 +5538,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J28" s="17">
         <v>406</v>
@@ -5556,22 +5550,22 @@
         <v>230000</v>
       </c>
       <c r="M28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N28">
         <v>16.538</v>
       </c>
       <c r="O28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T28" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V28" t="s">
         <v>102</v>
@@ -5597,7 +5591,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J29" s="17">
         <v>375</v>
@@ -5615,16 +5609,16 @@
         <v>9.15</v>
       </c>
       <c r="R29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T29" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V29" t="s">
         <v>102</v>
@@ -5650,7 +5644,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J30" s="17">
         <v>375</v>
@@ -5662,7 +5656,7 @@
         <v>181435</v>
       </c>
       <c r="M30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q30">
         <v>9.1</v>
@@ -5671,13 +5665,13 @@
         <v>103</v>
       </c>
       <c r="S30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T30" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V30" t="s">
         <v>102</v>
@@ -5703,7 +5697,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J31" s="17">
         <v>375</v>
@@ -5715,22 +5709,22 @@
         <v>181435</v>
       </c>
       <c r="M31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q31">
         <v>10.15</v>
       </c>
       <c r="R31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T31" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V31" t="s">
         <v>102</v>
@@ -5756,7 +5750,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J32" s="17">
         <v>375</v>
@@ -5768,22 +5762,22 @@
         <v>204115</v>
       </c>
       <c r="M32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q32">
         <v>9.1</v>
       </c>
       <c r="R32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T32" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V32" t="s">
         <v>102</v>
@@ -5809,7 +5803,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J33" s="17">
         <v>375</v>
@@ -5821,22 +5815,22 @@
         <v>204115</v>
       </c>
       <c r="M33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q33">
         <v>10.17</v>
       </c>
       <c r="R33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T33" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V33" t="s">
         <v>102</v>
@@ -5862,7 +5856,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J34" s="17">
         <v>220</v>
@@ -5880,16 +5874,16 @@
         <v>16.98</v>
       </c>
       <c r="O34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T34" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V34" t="s">
         <v>102</v>
@@ -5915,7 +5909,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J35" s="17">
         <v>220</v>
@@ -5936,7 +5930,7 @@
         <v>119</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>9.9</v>
@@ -5945,13 +5939,13 @@
         <v>119</v>
       </c>
       <c r="S35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T35" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V35" t="s">
         <v>102</v>
@@ -5977,7 +5971,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J36" s="17">
         <v>220</v>
@@ -5998,13 +5992,13 @@
         <v>120</v>
       </c>
       <c r="S36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T36" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V36" t="s">
         <v>102</v>
@@ -6030,7 +6024,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J37" s="17">
         <v>220</v>
@@ -6048,16 +6042,16 @@
         <v>16.260000000000002</v>
       </c>
       <c r="O37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T37" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V37" t="s">
         <v>102</v>
@@ -6083,7 +6077,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J38" s="17">
         <v>220</v>
@@ -6104,7 +6098,7 @@
         <v>121</v>
       </c>
       <c r="P38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q38">
         <v>9.9</v>
@@ -6113,13 +6107,13 @@
         <v>121</v>
       </c>
       <c r="S38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T38" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V38" t="s">
         <v>102</v>
@@ -6145,7 +6139,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J39" s="17">
         <v>220</v>
@@ -6163,16 +6157,16 @@
         <v>16.98</v>
       </c>
       <c r="O39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T39" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V39" t="s">
         <v>102</v>
@@ -6198,7 +6192,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J40" s="17">
         <v>220</v>
@@ -6219,13 +6213,13 @@
         <v>122</v>
       </c>
       <c r="S40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T40" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V40" t="s">
         <v>102</v>
@@ -6251,7 +6245,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J41" s="17">
         <v>220</v>
@@ -6269,16 +6263,16 @@
         <v>16.98</v>
       </c>
       <c r="O41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T41" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V41" t="s">
         <v>102</v>
@@ -6304,7 +6298,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J42" s="17">
         <v>220</v>
@@ -6325,7 +6319,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>10.5</v>
@@ -6334,13 +6328,13 @@
         <v>123</v>
       </c>
       <c r="S42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T42" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V42" t="s">
         <v>102</v>
@@ -6366,7 +6360,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J43" s="17">
         <v>220</v>
@@ -6384,16 +6378,16 @@
         <v>16.260000000000002</v>
       </c>
       <c r="O43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T43" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V43" t="s">
         <v>102</v>
@@ -6419,7 +6413,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J44" s="16">
         <v>295</v>
@@ -6440,13 +6434,13 @@
         <v>145</v>
       </c>
       <c r="S44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T44" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V44" t="s">
         <v>102</v>
@@ -6475,7 +6469,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J45" s="16">
         <v>295</v>
@@ -6493,25 +6487,25 @@
         <v>15.95</v>
       </c>
       <c r="O45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q45">
         <v>9.69</v>
       </c>
       <c r="R45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T45" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V45" t="s">
         <v>102</v>
@@ -6540,7 +6534,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J46" s="16">
         <v>295</v>
@@ -6561,7 +6555,7 @@
         <v>144</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q46">
         <v>9.3000000000000007</v>
@@ -6570,13 +6564,13 @@
         <v>144</v>
       </c>
       <c r="S46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T46" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V46" t="s">
         <v>102</v>
@@ -6605,7 +6599,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J47" s="16">
         <v>295</v>
@@ -6623,25 +6617,25 @@
         <v>15.95</v>
       </c>
       <c r="O47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <v>9.69</v>
       </c>
       <c r="R47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V47" t="s">
         <v>102</v>
@@ -6670,7 +6664,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J48" s="16">
         <v>295</v>
@@ -6688,16 +6682,16 @@
         <v>16.940000000000001</v>
       </c>
       <c r="O48" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T48" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V48" t="s">
         <v>102</v>
@@ -6726,7 +6720,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J49" s="16">
         <v>295</v>
@@ -6744,16 +6738,16 @@
         <v>16.940000000000001</v>
       </c>
       <c r="O49" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T49" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V49" t="s">
         <v>102</v>
@@ -6782,7 +6776,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="6"/>
       <c r="I50" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J50" s="17">
         <v>189</v>
@@ -6800,16 +6794,16 @@
         <v>10.8</v>
       </c>
       <c r="R50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T50" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V50" t="s">
         <v>102</v>
@@ -6835,7 +6829,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="6"/>
       <c r="I51" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J51" s="17">
         <v>189</v>
@@ -6853,16 +6847,16 @@
         <v>17.059999999999999</v>
       </c>
       <c r="O51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T51" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V51" t="s">
         <v>102</v>
@@ -6888,7 +6882,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="6"/>
       <c r="I52" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J52" s="17">
         <v>189</v>
@@ -6900,22 +6894,22 @@
         <v>79015</v>
       </c>
       <c r="M52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q52">
         <v>10.8</v>
       </c>
       <c r="R52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T52" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V52" t="s">
         <v>102</v>
@@ -6941,7 +6935,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="6"/>
       <c r="I53" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J53" s="17">
         <v>189</v>
@@ -6953,22 +6947,22 @@
         <v>79015</v>
       </c>
       <c r="M53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N53">
         <v>17.059999999999999</v>
       </c>
       <c r="O53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T53" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V53" t="s">
         <v>102</v>
@@ -6994,7 +6988,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J54" s="16">
         <v>78</v>
@@ -7015,13 +7009,13 @@
         <v>131</v>
       </c>
       <c r="S54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T54" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V54" t="s">
         <v>102</v>
@@ -7047,7 +7041,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J55" s="16">
         <v>78</v>
@@ -7068,13 +7062,13 @@
         <v>131</v>
       </c>
       <c r="P55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T55" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V55" t="s">
         <v>102</v>
@@ -7100,7 +7094,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J56" s="16">
         <v>78</v>
@@ -7121,13 +7115,13 @@
         <v>131</v>
       </c>
       <c r="S56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T56" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V56" t="s">
         <v>102</v>
@@ -7153,7 +7147,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J57" s="16">
         <v>78</v>
@@ -7174,13 +7168,13 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T57" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V57" t="s">
         <v>102</v>
@@ -7206,7 +7200,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J58" s="16">
         <v>381</v>
@@ -7218,13 +7212,13 @@
         <v>227930</v>
       </c>
       <c r="M58" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="T58" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="U58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V58" t="s">
         <v>102</v>
@@ -7250,7 +7244,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J59" s="16">
         <v>381</v>
@@ -7265,10 +7259,10 @@
         <v>148</v>
       </c>
       <c r="T59" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="U59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V59" t="s">
         <v>102</v>
@@ -7294,7 +7288,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J60" s="16">
         <v>440</v>
@@ -7312,25 +7306,25 @@
         <v>15.9</v>
       </c>
       <c r="O60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q60">
         <v>9.4</v>
       </c>
       <c r="R60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T60" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V60" t="s">
         <v>102</v>
@@ -7356,7 +7350,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J61" s="16">
         <v>440</v>
@@ -7374,16 +7368,16 @@
         <v>9.26</v>
       </c>
       <c r="R61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T61" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V61" t="s">
         <v>102</v>
@@ -7409,7 +7403,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J62" s="16">
         <v>440</v>
@@ -7427,16 +7421,16 @@
         <v>9.26</v>
       </c>
       <c r="R62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T62" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V62" t="s">
         <v>102</v>
@@ -7462,7 +7456,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J63" s="16">
         <v>440</v>
@@ -7480,7 +7474,7 @@
         <v>100</v>
       </c>
       <c r="U63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V63" t="s">
         <v>102</v>
@@ -7506,7 +7500,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J64" s="16">
         <v>440</v>
@@ -7524,7 +7518,7 @@
         <v>100</v>
       </c>
       <c r="U64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V64" t="s">
         <v>102</v>
@@ -7550,7 +7544,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J65" s="16">
         <v>440</v>
@@ -7568,16 +7562,16 @@
         <v>16.538</v>
       </c>
       <c r="O65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T65" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V65" t="s">
         <v>102</v>
@@ -7603,7 +7597,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J66" s="16">
         <v>440</v>
@@ -7621,16 +7615,16 @@
         <v>16</v>
       </c>
       <c r="O66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T66" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V66" t="s">
         <v>102</v>
@@ -7656,7 +7650,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J67" s="16">
         <v>440</v>
@@ -7674,16 +7668,16 @@
         <v>16</v>
       </c>
       <c r="O67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T67" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V67" t="s">
         <v>102</v>
@@ -7709,7 +7703,7 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J68" s="16">
         <v>440</v>
@@ -7727,16 +7721,16 @@
         <v>16.538</v>
       </c>
       <c r="O68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T68" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V68" t="s">
         <v>102</v>
@@ -7762,7 +7756,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J69" s="16">
         <v>50</v>
@@ -7774,22 +7768,22 @@
         <v>20600</v>
       </c>
       <c r="M69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q69">
         <v>10.199999999999999</v>
       </c>
       <c r="R69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S69" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T69" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V69" t="s">
         <v>102</v>
@@ -7815,7 +7809,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J70" s="16">
         <v>50</v>
@@ -7827,22 +7821,22 @@
         <v>20600</v>
       </c>
       <c r="M70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q70">
         <v>9.35</v>
       </c>
       <c r="R70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T70" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V70" t="s">
         <v>102</v>
@@ -7868,7 +7862,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J71" s="16">
         <v>50</v>
@@ -7880,22 +7874,22 @@
         <v>22000</v>
       </c>
       <c r="M71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q71">
         <v>9.35</v>
       </c>
       <c r="R71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T71" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V71" t="s">
         <v>102</v>
@@ -7921,7 +7915,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J72" s="16">
         <v>50</v>
@@ -7933,22 +7927,22 @@
         <v>24100</v>
       </c>
       <c r="M72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>9.35</v>
       </c>
       <c r="R72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T72" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U72" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V72" t="s">
         <v>102</v>
@@ -7974,7 +7968,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J73" s="16">
         <v>50</v>
@@ -7986,22 +7980,22 @@
         <v>20600</v>
       </c>
       <c r="M73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q73">
         <v>9.35</v>
       </c>
       <c r="R73" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T73" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V73" t="s">
         <v>102</v>
@@ -8027,7 +8021,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J74" s="16">
         <v>50</v>
@@ -8039,22 +8033,22 @@
         <v>22000</v>
       </c>
       <c r="M74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>9.35</v>
       </c>
       <c r="R74" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T74" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U74" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V74" t="s">
         <v>102</v>
@@ -8080,7 +8074,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J75" s="16">
         <v>50</v>
@@ -8092,22 +8086,22 @@
         <v>24100</v>
       </c>
       <c r="M75" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q75">
         <v>9.35</v>
       </c>
       <c r="R75" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T75" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V75" t="s">
         <v>102</v>
@@ -8133,7 +8127,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J76" s="16">
         <v>550</v>
@@ -8145,13 +8139,13 @@
         <v>299370</v>
       </c>
       <c r="M76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T76" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V76" t="s">
         <v>102</v>
@@ -8180,7 +8174,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J77" s="16">
         <v>550</v>
@@ -8192,22 +8186,22 @@
         <v>299370</v>
       </c>
       <c r="M77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N77">
         <v>16.5</v>
       </c>
       <c r="O77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T77" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V77" t="s">
         <v>102</v>
@@ -8236,7 +8230,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J78" s="16">
         <v>550</v>
@@ -8254,16 +8248,16 @@
         <v>15.8</v>
       </c>
       <c r="O78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T78" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U78" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V78" t="s">
         <v>102</v>
@@ -8292,7 +8286,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J79" s="16">
         <v>550</v>
@@ -8310,16 +8304,16 @@
         <v>16.283000000000001</v>
       </c>
       <c r="O79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T79" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V79" t="s">
         <v>102</v>
@@ -8348,7 +8342,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J80" s="16">
         <v>550</v>
@@ -8360,13 +8354,13 @@
         <v>351535</v>
       </c>
       <c r="M80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T80" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U80" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V80" t="s">
         <v>102</v>
@@ -8395,7 +8389,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J81" s="16">
         <v>124</v>
@@ -8407,22 +8401,22 @@
         <v>47790</v>
       </c>
       <c r="M81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q81">
         <v>10.8</v>
       </c>
       <c r="R81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S81" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T81" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V81" t="s">
         <v>102</v>
@@ -8451,7 +8445,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J82" s="16">
         <v>124</v>
@@ -8463,22 +8457,22 @@
         <v>50300</v>
       </c>
       <c r="M82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q82">
         <v>10.8</v>
       </c>
       <c r="R82" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S82" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T82" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V82" t="s">
         <v>102</v>
@@ -8507,7 +8501,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J83" s="16">
         <v>124</v>
@@ -8519,22 +8513,22 @@
         <v>51800</v>
       </c>
       <c r="M83" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q83">
         <v>10.8</v>
       </c>
       <c r="R83" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S83" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T83" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V83" t="s">
         <v>102</v>
@@ -8563,7 +8557,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J84" s="16">
         <v>420</v>
@@ -8575,13 +8569,13 @@
         <v>254692</v>
       </c>
       <c r="M84" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="T84" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="U84" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V84" t="s">
         <v>102</v>
@@ -8607,7 +8601,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J85" s="16">
         <v>420</v>
@@ -8622,10 +8616,10 @@
         <v>148</v>
       </c>
       <c r="T85" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="U85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V85" t="s">
         <v>102</v>
@@ -8651,7 +8645,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="6"/>
       <c r="I86" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J86" s="17">
         <v>220</v>
@@ -8669,25 +8663,25 @@
         <v>17.8</v>
       </c>
       <c r="O86" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q86">
         <v>10.5</v>
       </c>
       <c r="R86" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T86" s="7" t="s">
         <v>149</v>
       </c>
       <c r="U86" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V86" t="s">
         <v>102</v>
@@ -8713,7 +8707,7 @@
       <c r="G87" s="2"/>
       <c r="H87" s="6"/>
       <c r="I87" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J87" s="17">
         <v>220</v>
@@ -8731,16 +8725,16 @@
         <v>17.059999999999999</v>
       </c>
       <c r="O87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P87" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T87" s="7" t="s">
         <v>149</v>
       </c>
       <c r="U87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V87" t="s">
         <v>102</v>
@@ -8766,7 +8760,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="6"/>
       <c r="I88" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J88" s="17">
         <v>220</v>
@@ -8784,16 +8778,16 @@
         <v>10.8</v>
       </c>
       <c r="R88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T88" s="7" t="s">
         <v>149</v>
       </c>
       <c r="U88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V88" t="s">
         <v>102</v>
@@ -8819,7 +8813,7 @@
       <c r="G89" s="2"/>
       <c r="H89" s="6"/>
       <c r="I89" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J89" s="17">
         <v>220</v>
@@ -8837,16 +8831,16 @@
         <v>17.059999999999999</v>
       </c>
       <c r="O89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P89" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T89" s="7" t="s">
         <v>149</v>
       </c>
       <c r="U89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V89" t="s">
         <v>102</v>
@@ -8872,7 +8866,7 @@
       <c r="G90" s="2"/>
       <c r="H90" s="6"/>
       <c r="I90" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J90" s="17">
         <v>220</v>
@@ -8884,22 +8878,22 @@
         <v>85139</v>
       </c>
       <c r="M90" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q90">
         <v>10.8</v>
       </c>
       <c r="R90" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S90" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T90" s="7" t="s">
         <v>149</v>
       </c>
       <c r="U90" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V90" t="s">
         <v>102</v>
@@ -8925,7 +8919,7 @@
       <c r="G91" s="2"/>
       <c r="H91" s="6"/>
       <c r="I91" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J91" s="17">
         <v>220</v>
@@ -8937,22 +8931,22 @@
         <v>85139</v>
       </c>
       <c r="M91" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N91">
         <v>17.059999999999999</v>
       </c>
       <c r="O91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P91" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T91" s="7" t="s">
         <v>149</v>
       </c>
       <c r="U91" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V91" t="s">
         <v>102</v>
@@ -8978,7 +8972,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="6"/>
       <c r="I92" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J92" s="17">
         <v>220</v>
@@ -8996,25 +8990,25 @@
         <v>17.8</v>
       </c>
       <c r="O92" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P92" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q92">
         <v>10.5</v>
       </c>
       <c r="R92" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S92" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T92" s="7" t="s">
         <v>149</v>
       </c>
       <c r="U92" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V92" t="s">
         <v>102</v>
@@ -9040,7 +9034,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="6"/>
       <c r="I93" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J93" s="17">
         <v>220</v>
@@ -9058,16 +9052,16 @@
         <v>17.059999999999999</v>
       </c>
       <c r="O93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P93" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T93" s="7" t="s">
         <v>149</v>
       </c>
       <c r="U93" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V93" t="s">
         <v>102</v>
@@ -9093,7 +9087,7 @@
       <c r="G94" s="2"/>
       <c r="H94" s="6"/>
       <c r="I94" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J94" s="17">
         <v>220</v>
@@ -9111,16 +9105,16 @@
         <v>10.8</v>
       </c>
       <c r="R94" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S94" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T94" s="7" t="s">
         <v>149</v>
       </c>
       <c r="U94" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V94" t="s">
         <v>102</v>
@@ -9146,7 +9140,7 @@
       <c r="G95" s="2"/>
       <c r="H95" s="6"/>
       <c r="I95" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J95" s="17">
         <v>220</v>
@@ -9164,16 +9158,16 @@
         <v>17.059999999999999</v>
       </c>
       <c r="O95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T95" s="7" t="s">
         <v>149</v>
       </c>
       <c r="U95" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V95" t="s">
         <v>102</v>
@@ -9199,7 +9193,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="6"/>
       <c r="I96" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J96" s="17">
         <v>220</v>
@@ -9211,22 +9205,22 @@
         <v>74616</v>
       </c>
       <c r="M96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q96">
         <v>10.8</v>
       </c>
       <c r="R96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S96" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T96" s="7" t="s">
         <v>149</v>
       </c>
       <c r="U96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V96" t="s">
         <v>102</v>
@@ -9252,7 +9246,7 @@
       <c r="G97" s="2"/>
       <c r="H97" s="6"/>
       <c r="I97" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J97" s="17">
         <v>220</v>
@@ -9264,22 +9258,22 @@
         <v>74616</v>
       </c>
       <c r="M97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N97">
         <v>17.059999999999999</v>
       </c>
       <c r="O97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P97" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T97" s="7" t="s">
         <v>149</v>
       </c>
       <c r="U97" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V97" t="s">
         <v>102</v>
@@ -9305,7 +9299,7 @@
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J98" s="16">
         <v>37</v>
@@ -9317,25 +9311,25 @@
         <v>19000</v>
       </c>
       <c r="M98" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q98">
         <v>10.199999999999999</v>
       </c>
       <c r="R98" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S98" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T98" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U98" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V98" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W98" t="s">
         <v>129</v>
@@ -9361,7 +9355,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J99" s="16">
         <v>37</v>
@@ -9373,25 +9367,25 @@
         <v>19000</v>
       </c>
       <c r="M99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q99">
         <v>9.35</v>
       </c>
       <c r="R99" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S99" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T99" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U99" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V99" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W99" t="s">
         <v>129</v>
@@ -9417,7 +9411,7 @@
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J100" s="16">
         <v>37</v>
@@ -9429,25 +9423,25 @@
         <v>20000</v>
       </c>
       <c r="M100" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>9.35</v>
       </c>
       <c r="R100" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S100" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T100" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U100" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V100" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W100" t="s">
         <v>129</v>
@@ -9473,7 +9467,7 @@
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J101" s="16">
         <v>50</v>
@@ -9491,25 +9485,25 @@
         <v>19.489999999999998</v>
       </c>
       <c r="O101" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q101">
         <v>9.8000000000000007</v>
       </c>
       <c r="R101" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T101" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U101" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V101" t="s">
         <v>102</v>
@@ -9535,7 +9529,7 @@
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J102" s="16">
         <v>90</v>
@@ -9556,16 +9550,16 @@
         <v>133</v>
       </c>
       <c r="S102" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T102" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U102" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V102" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W102" t="s">
         <v>132</v>
@@ -9591,7 +9585,7 @@
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J103" s="16">
         <v>90</v>
@@ -9609,19 +9603,19 @@
         <v>18.78</v>
       </c>
       <c r="O103" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P103" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T103" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U103" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V103" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W103" t="s">
         <v>132</v>
@@ -9647,7 +9641,7 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J104" s="16">
         <v>90</v>
@@ -9665,19 +9659,19 @@
         <v>18.78</v>
       </c>
       <c r="O104" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P104" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T104" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U104" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V104" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W104" t="s">
         <v>132</v>
@@ -9703,7 +9697,7 @@
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J105" s="16">
         <v>90</v>
@@ -9721,19 +9715,19 @@
         <v>18.78</v>
       </c>
       <c r="O105" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T105" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U105" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V105" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W105" t="s">
         <v>132</v>
@@ -9759,7 +9753,7 @@
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J106" s="16">
         <v>90</v>
@@ -9777,19 +9771,19 @@
         <v>18.78</v>
       </c>
       <c r="O106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T106" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U106" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V106" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W106" t="s">
         <v>132</v>
@@ -9815,7 +9809,7 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J107" s="16">
         <v>90</v>
@@ -9833,19 +9827,19 @@
         <v>18.78</v>
       </c>
       <c r="O107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P107" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T107" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U107" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V107" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W107" t="s">
         <v>132</v>
@@ -9871,7 +9865,7 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J108" s="16">
         <v>167</v>
@@ -9883,31 +9877,31 @@
         <v>70760</v>
       </c>
       <c r="M108" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N108">
         <v>16.3</v>
       </c>
       <c r="O108" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P108" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q108">
         <v>10.199999999999999</v>
       </c>
       <c r="R108" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S108" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T108" s="7" t="s">
         <v>153</v>
       </c>
       <c r="U108" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V108" t="s">
         <v>102</v>
@@ -9936,7 +9930,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J109" s="16">
         <v>167</v>
@@ -9948,22 +9942,22 @@
         <v>70760</v>
       </c>
       <c r="M109" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N109">
         <v>16.260000000000002</v>
       </c>
       <c r="O109" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P109" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T109" s="7" t="s">
         <v>153</v>
       </c>
       <c r="U109" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V109" t="s">
         <v>102</v>
@@ -9992,7 +9986,7 @@
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J110" s="16">
         <v>44</v>
@@ -10004,25 +9998,25 @@
         <v>20100</v>
       </c>
       <c r="M110" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q110">
         <v>10.199999999999999</v>
       </c>
       <c r="R110" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S110" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T110" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U110" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V110" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W110" t="s">
         <v>129</v>
@@ -10048,7 +10042,7 @@
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J111" s="16">
         <v>44</v>
@@ -10060,25 +10054,25 @@
         <v>20100</v>
       </c>
       <c r="M111" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q111">
         <v>9.35</v>
       </c>
       <c r="R111" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S111" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T111" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U111" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V111" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W111" t="s">
         <v>129</v>
@@ -10104,7 +10098,7 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J112" s="16">
         <v>44</v>
@@ -10116,25 +10110,25 @@
         <v>21100</v>
       </c>
       <c r="M112" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q112">
         <v>9.35</v>
       </c>
       <c r="R112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S112" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T112" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U112" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V112" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W112" t="s">
         <v>129</v>
@@ -10160,7 +10154,7 @@
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J113" s="16">
         <v>134</v>
@@ -10172,22 +10166,22 @@
         <v>55000</v>
       </c>
       <c r="M113" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N113">
         <v>17.239999999999998</v>
       </c>
       <c r="O113" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P113" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T113" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="U113" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V113" t="s">
         <v>102</v>
@@ -10216,7 +10210,7 @@
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J114" s="16">
         <v>134</v>
@@ -10228,31 +10222,31 @@
         <v>55000</v>
       </c>
       <c r="M114" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N114">
         <v>17.600000000000001</v>
       </c>
       <c r="O114" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P114" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q114">
         <v>10.5</v>
       </c>
       <c r="R114" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S114" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T114" s="7" t="s">
         <v>154</v>
       </c>
       <c r="U114" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V114" t="s">
         <v>102</v>
@@ -10281,7 +10275,7 @@
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J115" s="16">
         <v>134</v>
@@ -10293,22 +10287,22 @@
         <v>50000</v>
       </c>
       <c r="M115" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N115">
         <v>17.239999999999998</v>
       </c>
       <c r="O115" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T115" s="7" t="s">
         <v>154</v>
       </c>
       <c r="U115" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V115" t="s">
         <v>102</v>
@@ -10337,7 +10331,7 @@
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J116" s="16">
         <v>134</v>
@@ -10349,31 +10343,31 @@
         <v>50000</v>
       </c>
       <c r="M116" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N116">
         <v>17.600000000000001</v>
       </c>
       <c r="O116" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P116" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q116">
         <v>10.5</v>
       </c>
       <c r="R116" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S116" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T116" s="7" t="s">
         <v>154</v>
       </c>
       <c r="U116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V116" t="s">
         <v>102</v>
@@ -10402,7 +10396,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J117" s="16">
         <v>88</v>
@@ -10414,13 +10408,13 @@
         <v>37500</v>
       </c>
       <c r="M117" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T117" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U117" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V117" t="s">
         <v>102</v>
@@ -10450,7 +10444,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J118" s="16">
         <v>88</v>
@@ -10462,13 +10456,13 @@
         <v>38790</v>
       </c>
       <c r="M118" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T118" s="7" t="s">
         <v>100</v>
       </c>
       <c r="U118" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V118" t="s">
         <v>102</v>
@@ -10496,7 +10490,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J119" s="16">
         <v>131</v>
@@ -10508,34 +10502,34 @@
         <v>76700</v>
       </c>
       <c r="M119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N119">
         <v>22.7</v>
       </c>
       <c r="O119" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P119" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q119">
         <v>16</v>
       </c>
       <c r="R119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S119" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T119" s="7" t="s">
         <v>157</v>
       </c>
       <c r="U119" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V119" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:25">
@@ -10556,7 +10550,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J120" s="16">
         <v>131</v>
@@ -10568,34 +10562,34 @@
         <v>76700</v>
       </c>
       <c r="M120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N120">
         <v>22.86</v>
       </c>
       <c r="O120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P120" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q120">
         <v>16.850000000000001</v>
       </c>
       <c r="R120" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S120" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T120" s="7" t="s">
         <v>157</v>
       </c>
       <c r="U120" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V120" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="121" spans="1:25">
@@ -10616,7 +10610,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J121" s="16">
         <v>131</v>
@@ -10628,34 +10622,34 @@
         <v>76700</v>
       </c>
       <c r="M121" t="s">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c r="N121">
         <v>22.6</v>
       </c>
       <c r="O121" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P121" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q121">
         <v>16.600000000000001</v>
       </c>
       <c r="R121" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S121" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T121" s="7" t="s">
         <v>157</v>
       </c>
       <c r="U121" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V121" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="122" spans="1:25">
@@ -10676,7 +10670,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J122" s="16">
         <v>131</v>
@@ -10688,25 +10682,25 @@
         <v>76700</v>
       </c>
       <c r="M122" t="s">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c r="Q122">
         <v>16.57</v>
       </c>
       <c r="R122" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S122" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T122" s="7" t="s">
         <v>157</v>
       </c>
       <c r="U122" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V122" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" spans="1:25">
@@ -10729,7 +10723,7 @@
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J123" s="16">
         <v>240</v>
@@ -10741,16 +10735,16 @@
         <v>97000</v>
       </c>
       <c r="M123" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T123" s="4" t="s">
         <v>156</v>
       </c>
       <c r="U123" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V123" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:25">
@@ -10773,7 +10767,7 @@
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J124" s="16">
         <v>240</v>
@@ -10785,16 +10779,16 @@
         <v>97000</v>
       </c>
       <c r="M124" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="T124" s="4" t="s">
         <v>156</v>
       </c>
       <c r="U124" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V124" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" spans="1:25">
@@ -10815,7 +10809,7 @@
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J125" s="16">
         <v>136</v>
@@ -10827,34 +10821,34 @@
         <v>58100</v>
       </c>
       <c r="M125" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N125">
         <v>22.6</v>
       </c>
       <c r="O125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P125" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q125">
         <v>16.600000000000001</v>
       </c>
       <c r="R125" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S125" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T125" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="U125" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V125" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126" spans="1:25">
@@ -10875,7 +10869,7 @@
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J126" s="16">
         <v>136</v>
@@ -10887,25 +10881,25 @@
         <v>58100</v>
       </c>
       <c r="M126" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q126">
         <v>16.57</v>
       </c>
       <c r="R126" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S126" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T126" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="U126" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V126" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="127" spans="1:25">
@@ -10926,7 +10920,7 @@
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J127" s="16">
         <v>136</v>
@@ -10938,34 +10932,34 @@
         <v>58100</v>
       </c>
       <c r="M127" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N127">
         <v>22.7</v>
       </c>
       <c r="O127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P127" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q127">
         <v>16</v>
       </c>
       <c r="R127" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S127" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T127" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="U127" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V127" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:25">
@@ -10986,7 +10980,7 @@
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J128" s="16">
         <v>136</v>
@@ -10998,34 +10992,34 @@
         <v>58100</v>
       </c>
       <c r="M128" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N128">
         <v>22.86</v>
       </c>
       <c r="O128" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q128">
         <v>16.850000000000001</v>
       </c>
       <c r="R128" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T128" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="U128" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -11046,7 +11040,7 @@
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J129" s="16">
         <v>136</v>
@@ -11058,25 +11052,25 @@
         <v>58100</v>
       </c>
       <c r="M129" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q129">
         <v>10.5</v>
       </c>
       <c r="R129" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S129" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T129" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="U129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V129" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -11097,7 +11091,7 @@
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J130" s="16">
         <v>136</v>
@@ -11109,34 +11103,34 @@
         <v>58100</v>
       </c>
       <c r="M130" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N130">
         <v>22.97</v>
       </c>
       <c r="O130" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P130" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q130">
         <v>17.34</v>
       </c>
       <c r="R130" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S130" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T130" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="U130" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V130" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -11157,7 +11151,7 @@
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J131" s="16">
         <v>136</v>
@@ -11169,34 +11163,34 @@
         <v>58100</v>
       </c>
       <c r="M131" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N131">
         <v>23.37</v>
       </c>
       <c r="O131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P131" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q131">
         <v>18.55</v>
       </c>
       <c r="R131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S131" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T131" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="U131" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V131" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -11217,7 +11211,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J132" s="16">
         <v>122</v>
@@ -11229,7 +11223,7 @@
         <v>43090</v>
       </c>
       <c r="M132" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N132">
         <v>19.5</v>
@@ -11238,16 +11232,16 @@
         <v>159</v>
       </c>
       <c r="P132" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T132" s="4" t="s">
         <v>158</v>
       </c>
       <c r="U132" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V132" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W132" t="s">
         <v>143</v>
@@ -11271,7 +11265,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J133" s="16">
         <v>122</v>
@@ -11283,25 +11277,25 @@
         <v>43090</v>
       </c>
       <c r="M133" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N133">
         <v>19.5</v>
       </c>
       <c r="O133" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P133" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T133" s="4" t="s">
         <v>158</v>
       </c>
       <c r="U133" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V133" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W133" t="s">
         <v>143</v>
@@ -11325,10 +11319,10 @@
       <c r="I134" s="20"/>
       <c r="J134" s="20"/>
       <c r="U134" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V134" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W134" s="8" t="s">
         <v>152</v>
@@ -11352,7 +11346,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J135" s="16">
         <v>400</v>
@@ -11364,25 +11358,25 @@
         <v>317500</v>
       </c>
       <c r="M135" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N135">
         <v>18.21</v>
       </c>
       <c r="O135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P135" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T135" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="U135" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V135" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11403,7 +11397,7 @@
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J136" s="16">
         <v>400</v>
@@ -11415,25 +11409,25 @@
         <v>317500</v>
       </c>
       <c r="M136" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N136">
         <v>17.48</v>
       </c>
       <c r="O136" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P136" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T136" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="U136" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V136" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11454,7 +11448,7 @@
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J137" s="16">
         <v>400</v>
@@ -11466,25 +11460,25 @@
         <v>317500</v>
       </c>
       <c r="M137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q137">
         <v>16.57</v>
       </c>
       <c r="R137" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T137" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="U137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V137" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11505,7 +11499,7 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J138" s="16">
         <v>400</v>
@@ -11517,34 +11511,34 @@
         <v>317500</v>
       </c>
       <c r="M138" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N138">
         <v>22.6</v>
       </c>
       <c r="O138" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P138" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q138">
         <v>16.600000000000001</v>
       </c>
       <c r="R138" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S138" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T138" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="U138" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V138" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11567,7 +11561,7 @@
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J139" s="16">
         <v>195</v>
@@ -11579,16 +11573,16 @@
         <v>79000</v>
       </c>
       <c r="M139" t="s">
+        <v>286</v>
+      </c>
+      <c r="T139" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="T139" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="U139" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V139" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11608,7 +11602,7 @@
         <v>64300</v>
       </c>
       <c r="I140" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J140" s="16">
         <v>195</v>
@@ -11620,16 +11614,16 @@
         <v>79000</v>
       </c>
       <c r="M140" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T140" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U140" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V140" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11652,7 +11646,7 @@
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J141" s="16">
         <v>440</v>
@@ -11664,16 +11658,16 @@
         <v>283000</v>
       </c>
       <c r="M141" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="T141" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U141" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V141" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11696,7 +11690,7 @@
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J142" s="16">
         <v>210</v>
@@ -11708,13 +11702,13 @@
         <v>82600</v>
       </c>
       <c r="M142" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="T142" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="U142" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V142" t="s">
         <v>102</v>
@@ -11740,7 +11734,7 @@
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J143" s="16">
         <v>440</v>
@@ -11752,13 +11746,13 @@
         <v>254011</v>
       </c>
       <c r="M143" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="T143" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="U143" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V143" t="s">
         <v>102</v>
@@ -11784,7 +11778,7 @@
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J144" s="16">
         <v>440</v>
@@ -11799,10 +11793,10 @@
         <v>148</v>
       </c>
       <c r="T144" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="U144" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V144" t="s">
         <v>102</v>
@@ -11826,10 +11820,10 @@
       <c r="I145" s="20"/>
       <c r="J145" s="20"/>
       <c r="U145" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V145" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W145" s="8" t="s">
         <v>108</v>
@@ -11853,7 +11847,7 @@
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J146" s="16">
         <v>30</v>
@@ -11865,16 +11859,16 @@
         <v>11500</v>
       </c>
       <c r="M146" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T146" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U146" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V146" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11895,7 +11889,7 @@
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J147" s="16">
         <v>30</v>
@@ -11907,16 +11901,16 @@
         <v>11500</v>
       </c>
       <c r="M147" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T147" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U147" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V147" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11937,7 +11931,7 @@
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J148" s="16">
         <v>30</v>
@@ -11949,16 +11943,16 @@
         <v>11500</v>
       </c>
       <c r="M148" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T148" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U148" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V148" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11979,7 +11973,7 @@
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J149" s="16">
         <v>34</v>
@@ -11991,16 +11985,16 @@
         <v>13154</v>
       </c>
       <c r="M149" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="T149" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U149" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V149" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12023,7 +12017,7 @@
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J150" s="16">
         <v>460</v>
@@ -12035,13 +12029,13 @@
         <v>251000</v>
       </c>
       <c r="M150" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="T150" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U150" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V150" t="s">
         <v>102</v>
@@ -12065,7 +12059,7 @@
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J151" s="16">
         <v>136</v>
@@ -12083,19 +12077,19 @@
         <v>16.98</v>
       </c>
       <c r="O151" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T151" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="U151" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V151" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12116,7 +12110,7 @@
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="I152" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J152" s="16">
         <v>136</v>
@@ -12134,19 +12128,19 @@
         <v>16.98</v>
       </c>
       <c r="O152" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P152" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T152" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="U152" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V152" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12167,7 +12161,7 @@
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="I153" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J153" s="16">
         <v>136</v>
@@ -12185,19 +12179,19 @@
         <v>10.199999999999999</v>
       </c>
       <c r="R153" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S153" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T153" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="U153" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V153" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12218,7 +12212,7 @@
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J154" s="16">
         <v>136</v>
@@ -12233,13 +12227,13 @@
         <v>112</v>
       </c>
       <c r="T154" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="U154" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V154" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12262,7 +12256,7 @@
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="I155" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J155" s="16">
         <v>275</v>
@@ -12274,25 +12268,25 @@
         <v>144000</v>
       </c>
       <c r="M155" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N155">
         <v>17.420000000000002</v>
       </c>
       <c r="O155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P155" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T155" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U155" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V155" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12315,7 +12309,7 @@
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="I156" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J156" s="16">
         <v>275</v>
@@ -12327,34 +12321,34 @@
         <v>144000</v>
       </c>
       <c r="M156" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N156">
         <v>17.399999999999999</v>
       </c>
       <c r="O156" t="s">
+        <v>210</v>
+      </c>
+      <c r="P156" t="s">
         <v>211</v>
-      </c>
-      <c r="P156" t="s">
-        <v>212</v>
       </c>
       <c r="Q156">
         <v>9.6999999999999993</v>
       </c>
       <c r="R156" t="s">
+        <v>210</v>
+      </c>
+      <c r="S156" t="s">
         <v>211</v>
       </c>
-      <c r="S156" t="s">
-        <v>212</v>
-      </c>
       <c r="T156" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U156" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V156" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12377,7 +12371,7 @@
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J157" s="16">
         <v>275</v>
@@ -12389,25 +12383,25 @@
         <v>144000</v>
       </c>
       <c r="M157" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q157">
         <v>9.26</v>
       </c>
       <c r="R157" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S157" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T157" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U157" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V157" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12430,7 +12424,7 @@
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J158" s="16">
         <v>220</v>
@@ -12442,13 +12436,13 @@
         <v>88310</v>
       </c>
       <c r="M158" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="T158" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="U158" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V158" t="s">
         <v>102</v>
@@ -12456,62 +12450,84 @@
     </row>
     <row r="159" spans="1:23">
       <c r="A159" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>70</v>
-      </c>
-      <c r="C159" s="6">
-        <v>2016</v>
-      </c>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="J159" s="2"/>
-      <c r="K159" s="13"/>
-      <c r="M159" t="s">
-        <v>243</v>
+        <v>301</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1984</v>
+      </c>
+      <c r="E159" s="17">
+        <v>84360</v>
+      </c>
+      <c r="F159" s="3">
+        <v>17.4331</v>
+      </c>
+      <c r="G159" s="3">
+        <v>17.073599999999999</v>
+      </c>
+      <c r="H159" s="3">
+        <v>0.54935999999999996</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J159" s="17">
+        <v>239</v>
+      </c>
+      <c r="K159" s="13">
+        <v>58440</v>
+      </c>
+      <c r="L159" s="17">
+        <v>115660</v>
       </c>
       <c r="U159" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="V159" t="s">
-        <v>254</v>
+        <v>102</v>
       </c>
     </row>
     <row r="160" spans="1:23">
       <c r="A160" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B160" t="s">
-        <v>70</v>
-      </c>
-      <c r="C160" s="6">
-        <v>2016</v>
-      </c>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="J160" s="2"/>
-      <c r="K160" s="13"/>
-      <c r="M160" t="s">
-        <v>289</v>
+        <v>302</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1987</v>
+      </c>
+      <c r="E160" s="17">
+        <v>129950</v>
+      </c>
+      <c r="F160" s="3">
+        <v>16.960100000000001</v>
+      </c>
+      <c r="G160" s="3">
+        <v>15.4071</v>
+      </c>
+      <c r="H160" s="3">
+        <v>0.52395999999999998</v>
+      </c>
+      <c r="I160" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="J160" s="17">
+        <v>351</v>
+      </c>
+      <c r="K160" s="13">
+        <v>88050</v>
+      </c>
+      <c r="L160" s="17">
+        <v>170000</v>
       </c>
       <c r="U160" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="V160" t="s">
-        <v>254</v>
+        <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:22">
@@ -12519,34 +12535,34 @@
         <v>4</v>
       </c>
       <c r="B161" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C161" s="3">
-        <v>1984</v>
+        <v>1995</v>
       </c>
       <c r="E161" s="17">
-        <v>84360</v>
+        <v>195000</v>
       </c>
       <c r="F161" s="3">
-        <v>17.4331</v>
+        <v>15.811400000000001</v>
       </c>
       <c r="G161" s="3">
-        <v>17.073599999999999</v>
+        <v>18.2805</v>
       </c>
       <c r="H161" s="3">
-        <v>0.54935999999999996</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>277</v>
+        <v>0.49220999999999998</v>
+      </c>
+      <c r="I161" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="J161" s="17">
-        <v>239</v>
+        <v>440</v>
       </c>
       <c r="K161" s="13">
-        <v>58440</v>
+        <v>136975</v>
       </c>
       <c r="L161" s="17">
-        <v>115660</v>
+        <v>272375</v>
       </c>
       <c r="U161" t="s">
         <v>102</v>
@@ -12557,37 +12573,37 @@
     </row>
     <row r="162" spans="1:22">
       <c r="A162" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>305</v>
+        <v>9</v>
       </c>
       <c r="C162" s="3">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E162" s="17">
-        <v>129950</v>
+        <v>62500</v>
       </c>
       <c r="F162" s="3">
-        <v>16.960100000000001</v>
+        <v>16.892499999999998</v>
       </c>
       <c r="G162" s="3">
-        <v>15.4071</v>
+        <v>15.9818</v>
       </c>
       <c r="H162" s="3">
-        <v>0.52395999999999998</v>
+        <v>0.55410999999999999</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J162" s="17">
-        <v>351</v>
+        <v>195</v>
       </c>
       <c r="K162" s="13">
-        <v>88050</v>
+        <v>42600</v>
       </c>
       <c r="L162" s="17">
-        <v>170000</v>
+        <v>78000</v>
       </c>
       <c r="U162" t="s">
         <v>102</v>
@@ -12598,37 +12614,37 @@
     </row>
     <row r="163" spans="1:22">
       <c r="A163" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B163" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C163" s="3">
-        <v>1995</v>
+        <v>1983</v>
       </c>
       <c r="E163" s="17">
-        <v>195000</v>
+        <v>115700</v>
       </c>
       <c r="F163" s="3">
-        <v>15.811400000000001</v>
+        <v>17.095300000000002</v>
       </c>
       <c r="G163" s="3">
-        <v>18.2805</v>
+        <v>16.7288</v>
       </c>
       <c r="H163" s="3">
-        <v>0.49220999999999998</v>
+        <v>0.53983000000000003</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J163" s="17">
-        <v>440</v>
+        <v>290</v>
       </c>
       <c r="K163" s="13">
-        <v>136975</v>
+        <v>81250</v>
       </c>
       <c r="L163" s="17">
-        <v>272375</v>
+        <v>160000</v>
       </c>
       <c r="U163" t="s">
         <v>102</v>
@@ -12639,37 +12655,37 @@
     </row>
     <row r="164" spans="1:22">
       <c r="A164" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>9</v>
+        <v>297</v>
       </c>
       <c r="C164" s="3">
-        <v>1988</v>
-      </c>
-      <c r="E164" s="17">
-        <v>62500</v>
+        <v>1984</v>
+      </c>
+      <c r="E164" s="18">
+        <v>49710</v>
       </c>
       <c r="F164" s="3">
-        <v>16.892499999999998</v>
+        <v>20.879100000000001</v>
       </c>
       <c r="G164" s="3">
-        <v>15.9818</v>
+        <v>14.2003</v>
       </c>
       <c r="H164" s="3">
-        <v>0.55410999999999999</v>
+        <v>0.54776999999999998</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J164" s="17">
-        <v>195</v>
+        <v>274</v>
+      </c>
+      <c r="J164" s="18">
+        <v>149</v>
       </c>
       <c r="K164" s="13">
-        <v>42600</v>
-      </c>
-      <c r="L164" s="17">
-        <v>78000</v>
+        <v>32820</v>
+      </c>
+      <c r="L164" s="18">
+        <v>62820</v>
       </c>
       <c r="U164" t="s">
         <v>102</v>
@@ -12680,37 +12696,35 @@
     </row>
     <row r="165" spans="1:22">
       <c r="A165" t="s">
-        <v>10</v>
-      </c>
-      <c r="B165" t="s">
-        <v>307</v>
+        <v>16</v>
+      </c>
+      <c r="B165" s="22" t="s">
+        <v>288</v>
       </c>
       <c r="C165" s="3">
-        <v>1983</v>
-      </c>
-      <c r="E165" s="17">
-        <v>115700</v>
-      </c>
+        <v>1980</v>
+      </c>
+      <c r="E165" s="18"/>
       <c r="F165" s="3">
-        <v>17.095300000000002</v>
+        <v>20.744</v>
       </c>
       <c r="G165" s="3">
-        <v>16.7288</v>
+        <v>13.9129</v>
       </c>
       <c r="H165" s="3">
-        <v>0.53983000000000003</v>
+        <v>0.56840000000000002</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="J165" s="17">
-        <v>290</v>
+        <v>274</v>
+      </c>
+      <c r="J165" s="18">
+        <v>172</v>
       </c>
       <c r="K165" s="13">
-        <v>81250</v>
-      </c>
-      <c r="L165" s="17">
-        <v>160000</v>
+        <v>35750</v>
+      </c>
+      <c r="L165" s="18">
+        <v>70000</v>
       </c>
       <c r="U165" t="s">
         <v>102</v>
@@ -12721,37 +12735,35 @@
     </row>
     <row r="166" spans="1:22">
       <c r="A166" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B166" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C166" s="3">
-        <v>1984</v>
-      </c>
-      <c r="E166" s="18">
-        <v>49710</v>
-      </c>
+        <v>1989</v>
+      </c>
+      <c r="E166" s="18"/>
       <c r="F166" s="3">
-        <v>20.879100000000001</v>
+        <v>17.4331</v>
       </c>
       <c r="G166" s="3">
-        <v>14.2003</v>
+        <v>17.188600000000001</v>
       </c>
       <c r="H166" s="3">
-        <v>0.54776999999999998</v>
+        <v>0.48269000000000001</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J166" s="18">
-        <v>149</v>
-      </c>
-      <c r="K166" s="13">
-        <v>32820</v>
+        <v>550</v>
+      </c>
+      <c r="K166">
+        <v>183000</v>
       </c>
       <c r="L166" s="18">
-        <v>62820</v>
+        <v>405000</v>
       </c>
       <c r="U166" t="s">
         <v>102</v>
@@ -12762,35 +12774,35 @@
     </row>
     <row r="167" spans="1:22">
       <c r="A167" t="s">
-        <v>16</v>
-      </c>
-      <c r="B167" s="22" t="s">
-        <v>291</v>
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>300</v>
       </c>
       <c r="C167" s="3">
-        <v>1980</v>
+        <v>1967</v>
       </c>
       <c r="E167" s="18"/>
       <c r="F167" s="3">
-        <v>20.744</v>
+        <v>23.244</v>
       </c>
       <c r="G167" s="3">
-        <v>13.9129</v>
+        <v>13.798</v>
       </c>
       <c r="H167" s="3">
-        <v>0.56840000000000002</v>
+        <v>0.57157999999999998</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J167" s="18">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="K167" s="13">
-        <v>35750</v>
+        <v>45720</v>
       </c>
       <c r="L167" s="18">
-        <v>70000</v>
+        <v>85000</v>
       </c>
       <c r="U167" t="s">
         <v>102</v>
@@ -12801,35 +12813,35 @@
     </row>
     <row r="168" spans="1:22">
       <c r="A168" t="s">
-        <v>4</v>
-      </c>
-      <c r="B168" t="s">
-        <v>301</v>
+        <v>16</v>
+      </c>
+      <c r="B168" s="22" t="s">
+        <v>291</v>
       </c>
       <c r="C168" s="3">
-        <v>1989</v>
-      </c>
-      <c r="E168" s="18"/>
+        <v>1972</v>
+      </c>
+      <c r="E168" s="17"/>
       <c r="F168" s="3">
-        <v>17.4331</v>
+        <v>17.770800000000001</v>
       </c>
       <c r="G168" s="3">
-        <v>17.188600000000001</v>
+        <v>15.2348</v>
       </c>
       <c r="H168" s="3">
-        <v>0.48269000000000001</v>
+        <v>0.46046999999999999</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="J168" s="18">
-        <v>550</v>
-      </c>
-      <c r="K168">
-        <v>183000</v>
-      </c>
-      <c r="L168" s="18">
-        <v>405000</v>
+        <v>275</v>
+      </c>
+      <c r="J168" s="17">
+        <v>380</v>
+      </c>
+      <c r="K168" s="13">
+        <v>120742</v>
+      </c>
+      <c r="L168" s="17">
+        <v>251744</v>
       </c>
       <c r="U168" t="s">
         <v>102</v>
@@ -12843,32 +12855,34 @@
         <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C169" s="3">
-        <v>1967</v>
-      </c>
-      <c r="E169" s="18"/>
+        <v>1988</v>
+      </c>
+      <c r="E169" s="17">
+        <v>53070</v>
+      </c>
       <c r="F169" s="3">
-        <v>23.244</v>
+        <v>17.770800000000001</v>
       </c>
       <c r="G169" s="3">
         <v>13.798</v>
       </c>
       <c r="H169" s="3">
-        <v>0.57157999999999998</v>
+        <v>0.52237</v>
       </c>
       <c r="I169" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J169" s="18">
-        <v>189</v>
-      </c>
-      <c r="K169" s="13">
-        <v>45720</v>
-      </c>
-      <c r="L169" s="18">
-        <v>85000</v>
+        <v>274</v>
+      </c>
+      <c r="J169" s="17">
+        <v>188</v>
+      </c>
+      <c r="K169">
+        <v>34820</v>
+      </c>
+      <c r="L169" s="17">
+        <v>68040</v>
       </c>
       <c r="U169" t="s">
         <v>102</v>
@@ -12879,35 +12893,33 @@
     </row>
     <row r="170" spans="1:22">
       <c r="A170" t="s">
-        <v>16</v>
-      </c>
-      <c r="B170" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" t="s">
         <v>294</v>
       </c>
       <c r="C170" s="3">
-        <v>1972</v>
-      </c>
-      <c r="E170" s="17"/>
+        <v>1967</v>
+      </c>
+      <c r="E170" s="18"/>
       <c r="F170" s="3">
-        <v>17.770800000000001</v>
+        <v>22.771000000000001</v>
       </c>
       <c r="G170" s="3">
-        <v>15.2348</v>
-      </c>
-      <c r="H170" s="3">
-        <v>0.46046999999999999</v>
-      </c>
+        <v>13.9129</v>
+      </c>
+      <c r="H170" s="6"/>
       <c r="I170" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="J170" s="17">
-        <v>380</v>
-      </c>
-      <c r="K170" s="13">
-        <v>120742</v>
-      </c>
-      <c r="L170" s="17">
-        <v>251744</v>
+        <v>274</v>
+      </c>
+      <c r="J170" s="18">
+        <v>130</v>
+      </c>
+      <c r="K170">
+        <v>28800</v>
+      </c>
+      <c r="L170" s="18">
+        <v>54000</v>
       </c>
       <c r="U170" t="s">
         <v>102</v>
@@ -12918,37 +12930,37 @@
     </row>
     <row r="171" spans="1:22">
       <c r="A171" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C171" s="3">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="E171" s="17">
-        <v>53070</v>
+        <v>46720</v>
       </c>
       <c r="F171" s="3">
-        <v>17.770800000000001</v>
+        <v>17.973800000000001</v>
       </c>
       <c r="G171" s="3">
-        <v>13.798</v>
+        <v>14.0854</v>
       </c>
       <c r="H171" s="3">
-        <v>0.52237</v>
+        <v>0.58269000000000004</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J171" s="17">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="K171">
-        <v>34820</v>
+        <v>31950</v>
       </c>
       <c r="L171" s="17">
-        <v>68040</v>
+        <v>60550</v>
       </c>
       <c r="U171" t="s">
         <v>102</v>
@@ -12962,30 +12974,32 @@
         <v>4</v>
       </c>
       <c r="B172" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C172" s="3">
-        <v>1967</v>
-      </c>
-      <c r="E172" s="18"/>
+        <v>1970</v>
+      </c>
+      <c r="E172" s="17"/>
       <c r="F172" s="3">
-        <v>22.771000000000001</v>
+        <v>17.568200000000001</v>
       </c>
       <c r="G172" s="3">
-        <v>13.9129</v>
-      </c>
-      <c r="H172" s="6"/>
+        <v>16.614100000000001</v>
+      </c>
+      <c r="H172" s="3">
+        <v>0.51444000000000001</v>
+      </c>
       <c r="I172" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J172" s="18">
-        <v>130</v>
+        <v>275</v>
+      </c>
+      <c r="J172" s="17">
+        <v>550</v>
       </c>
       <c r="K172">
-        <v>28800</v>
-      </c>
-      <c r="L172" s="18">
-        <v>54000</v>
+        <v>176000</v>
+      </c>
+      <c r="L172" s="17">
+        <v>360000</v>
       </c>
       <c r="U172" t="s">
         <v>102</v>
@@ -12996,37 +13010,35 @@
     </row>
     <row r="173" spans="1:22">
       <c r="A173" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B173" t="s">
-        <v>298</v>
+        <v>29</v>
       </c>
       <c r="C173" s="3">
         <v>1990</v>
       </c>
-      <c r="E173" s="17">
-        <v>46720</v>
-      </c>
+      <c r="E173" s="17"/>
       <c r="F173" s="3">
-        <v>17.973800000000001</v>
+        <v>16.892499999999998</v>
       </c>
       <c r="G173" s="3">
-        <v>14.0854</v>
+        <v>15.9818</v>
       </c>
       <c r="H173" s="3">
-        <v>0.58269000000000004</v>
+        <v>0.45728999999999997</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J173" s="17">
-        <v>145</v>
+        <v>410</v>
       </c>
       <c r="K173">
-        <v>31950</v>
+        <v>128808</v>
       </c>
       <c r="L173" s="17">
-        <v>60550</v>
+        <v>280000</v>
       </c>
       <c r="U173" t="s">
         <v>102</v>
@@ -13040,32 +13052,32 @@
         <v>4</v>
       </c>
       <c r="B174" t="s">
-        <v>302</v>
+        <v>32</v>
       </c>
       <c r="C174" s="3">
         <v>1970</v>
       </c>
       <c r="E174" s="17"/>
       <c r="F174" s="3">
-        <v>17.568200000000001</v>
+        <v>17.6358</v>
       </c>
       <c r="G174" s="3">
         <v>16.614100000000001</v>
       </c>
       <c r="H174" s="3">
-        <v>0.51444000000000001</v>
+        <v>0.48110000000000003</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J174" s="17">
-        <v>550</v>
+        <v>440</v>
       </c>
       <c r="K174">
-        <v>176000</v>
+        <v>167715</v>
       </c>
       <c r="L174" s="17">
-        <v>360000</v>
+        <v>337000</v>
       </c>
       <c r="U174" t="s">
         <v>102</v>
@@ -13076,35 +13088,37 @@
     </row>
     <row r="175" spans="1:22">
       <c r="A175" t="s">
-        <v>28</v>
-      </c>
-      <c r="B175" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="B175" s="22" t="s">
+        <v>289</v>
       </c>
       <c r="C175" s="3">
-        <v>1990</v>
-      </c>
-      <c r="E175" s="17"/>
+        <v>1966</v>
+      </c>
+      <c r="E175" s="17">
+        <v>39460</v>
+      </c>
       <c r="F175" s="3">
-        <v>16.892499999999998</v>
+        <v>22.4331</v>
       </c>
       <c r="G175" s="3">
-        <v>15.9818</v>
+        <v>13.798</v>
       </c>
       <c r="H175" s="3">
-        <v>0.45728999999999997</v>
+        <v>0.46839999999999998</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J175" s="17">
-        <v>410</v>
+        <v>127</v>
       </c>
       <c r="K175">
-        <v>128808</v>
+        <v>25789</v>
       </c>
       <c r="L175" s="17">
-        <v>280000</v>
+        <v>48988</v>
       </c>
       <c r="U175" t="s">
         <v>102</v>
@@ -13115,35 +13129,35 @@
     </row>
     <row r="176" spans="1:22">
       <c r="A176" t="s">
-        <v>4</v>
-      </c>
-      <c r="B176" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="B176" s="22" t="s">
+        <v>292</v>
       </c>
       <c r="C176" s="3">
         <v>1970</v>
       </c>
       <c r="E176" s="17"/>
       <c r="F176" s="3">
-        <v>17.6358</v>
+        <v>17.095300000000002</v>
       </c>
       <c r="G176" s="3">
-        <v>16.614100000000001</v>
+        <v>14.2003</v>
       </c>
       <c r="H176" s="3">
-        <v>0.48110000000000003</v>
+        <v>0.53507000000000005</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J176" s="17">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="K176">
-        <v>167715</v>
+        <v>108940</v>
       </c>
       <c r="L176" s="17">
-        <v>337000</v>
+        <v>195045</v>
       </c>
       <c r="U176" t="s">
         <v>102</v>
@@ -13154,37 +13168,35 @@
     </row>
     <row r="177" spans="1:22">
       <c r="A177" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B177" s="22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C177" s="3">
-        <v>1966</v>
-      </c>
-      <c r="E177" s="17">
-        <v>39460</v>
-      </c>
+        <v>1973</v>
+      </c>
+      <c r="E177" s="17"/>
       <c r="F177" s="3">
-        <v>22.4331</v>
+        <v>17.568200000000001</v>
       </c>
       <c r="G177" s="3">
-        <v>13.798</v>
+        <v>14.315300000000001</v>
       </c>
       <c r="H177" s="3">
-        <v>0.46839999999999998</v>
+        <v>0.53664999999999996</v>
       </c>
       <c r="I177" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J177" s="17">
-        <v>127</v>
+        <v>400</v>
       </c>
       <c r="K177">
-        <v>25789</v>
+        <v>111500</v>
       </c>
       <c r="L177" s="17">
-        <v>48988</v>
+        <v>205000</v>
       </c>
       <c r="U177" t="s">
         <v>102</v>
@@ -13195,35 +13207,35 @@
     </row>
     <row r="178" spans="1:22">
       <c r="A178" t="s">
-        <v>28</v>
-      </c>
-      <c r="B178" s="22" t="s">
-        <v>295</v>
+        <v>13</v>
+      </c>
+      <c r="B178" t="s">
+        <v>287</v>
       </c>
       <c r="C178" s="3">
-        <v>1970</v>
+        <v>1984</v>
       </c>
       <c r="E178" s="17"/>
       <c r="F178" s="3">
-        <v>17.095300000000002</v>
+        <v>16.892499999999998</v>
       </c>
       <c r="G178" s="3">
-        <v>14.2003</v>
+        <v>14.602600000000001</v>
       </c>
       <c r="H178" s="3">
-        <v>0.53507000000000005</v>
+        <v>0.52078000000000002</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J178" s="17">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="K178">
-        <v>108940</v>
+        <v>88626</v>
       </c>
       <c r="L178" s="17">
-        <v>195045</v>
+        <v>171700</v>
       </c>
       <c r="U178" t="s">
         <v>102</v>
@@ -13234,312 +13246,281 @@
     </row>
     <row r="179" spans="1:22">
       <c r="A179" t="s">
-        <v>44</v>
-      </c>
-      <c r="B179" s="22" t="s">
-        <v>296</v>
+        <v>16</v>
+      </c>
+      <c r="B179" t="s">
+        <v>308</v>
       </c>
       <c r="C179" s="3">
-        <v>1973</v>
-      </c>
-      <c r="E179" s="17"/>
+        <v>1976</v>
+      </c>
+      <c r="E179" s="17">
+        <v>44670</v>
+      </c>
       <c r="F179" s="3">
-        <v>17.568200000000001</v>
-      </c>
-      <c r="G179" s="3">
-        <v>14.315300000000001</v>
-      </c>
+        <v>21.892600000000002</v>
+      </c>
+      <c r="G179" s="2"/>
       <c r="H179" s="3">
-        <v>0.53664999999999996</v>
+        <v>0.50966999999999996</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J179" s="17">
-        <v>400</v>
-      </c>
-      <c r="K179">
-        <v>111500</v>
+        <v>139</v>
+      </c>
+      <c r="K179" s="13">
+        <v>29336</v>
       </c>
       <c r="L179" s="17">
-        <v>205000</v>
+        <v>54885</v>
       </c>
       <c r="U179" t="s">
         <v>102</v>
       </c>
       <c r="V179" t="s">
-        <v>102</v>
+        <v>251</v>
       </c>
     </row>
     <row r="180" spans="1:22">
       <c r="A180" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B180" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="C180" s="3">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="E180" s="17"/>
       <c r="F180" s="3">
-        <v>16.892499999999998</v>
+        <v>17.973800000000001</v>
       </c>
       <c r="G180" s="3">
-        <v>14.602600000000001</v>
+        <v>14.8324</v>
       </c>
       <c r="H180" s="3">
-        <v>0.52078000000000002</v>
+        <v>0.47793000000000002</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J180" s="17">
-        <v>345</v>
-      </c>
-      <c r="K180">
-        <v>88626</v>
+        <v>330</v>
+      </c>
+      <c r="K180" s="13">
+        <v>111000</v>
       </c>
       <c r="L180" s="17">
-        <v>171700</v>
+        <v>231332</v>
       </c>
       <c r="U180" t="s">
         <v>102</v>
       </c>
       <c r="V180" t="s">
-        <v>102</v>
+        <v>251</v>
       </c>
     </row>
     <row r="181" spans="1:22">
       <c r="A181" t="s">
         <v>16</v>
       </c>
-      <c r="B181" t="s">
-        <v>311</v>
+      <c r="B181" s="22" t="s">
+        <v>290</v>
       </c>
       <c r="C181" s="3">
-        <v>1976</v>
-      </c>
-      <c r="E181" s="17">
-        <v>44670</v>
-      </c>
+        <v>1972</v>
+      </c>
+      <c r="E181" s="17"/>
       <c r="F181" s="3">
-        <v>21.892600000000002</v>
-      </c>
-      <c r="G181" s="2"/>
+        <v>17.4331</v>
+      </c>
+      <c r="G181" s="3">
+        <v>13.9129</v>
+      </c>
       <c r="H181" s="3">
-        <v>0.50966999999999996</v>
+        <v>0.47793000000000002</v>
       </c>
       <c r="I181" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J181" s="17">
-        <v>139</v>
-      </c>
-      <c r="K181" s="13">
-        <v>29336</v>
+        <v>380</v>
+      </c>
+      <c r="K181">
+        <v>122567</v>
       </c>
       <c r="L181" s="17">
-        <v>54885</v>
+        <v>251744</v>
       </c>
       <c r="U181" t="s">
         <v>102</v>
       </c>
       <c r="V181" t="s">
-        <v>254</v>
+        <v>102</v>
       </c>
     </row>
     <row r="182" spans="1:22">
       <c r="A182" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B182" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C182" s="3">
-        <v>1979</v>
+        <v>1968</v>
       </c>
       <c r="E182" s="17"/>
       <c r="F182" s="3">
-        <v>17.973800000000001</v>
-      </c>
-      <c r="G182" s="3">
-        <v>14.8324</v>
-      </c>
+        <v>23.244</v>
+      </c>
+      <c r="G182" s="2"/>
       <c r="H182" s="3">
-        <v>0.47793000000000002</v>
+        <v>0.48426999999999998</v>
       </c>
       <c r="I182" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J182" s="17">
-        <v>330</v>
-      </c>
-      <c r="K182" s="13">
-        <v>111000</v>
+        <v>128</v>
+      </c>
+      <c r="K182">
+        <v>27821</v>
       </c>
       <c r="L182" s="17">
-        <v>231332</v>
+        <v>51710</v>
       </c>
       <c r="U182" t="s">
         <v>102</v>
       </c>
       <c r="V182" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="183" spans="1:22">
       <c r="A183" t="s">
-        <v>16</v>
-      </c>
-      <c r="B183" s="22" t="s">
-        <v>293</v>
+        <v>28</v>
+      </c>
+      <c r="B183" t="s">
+        <v>306</v>
       </c>
       <c r="C183" s="3">
-        <v>1972</v>
+        <v>1965</v>
       </c>
       <c r="E183" s="17"/>
       <c r="F183" s="3">
-        <v>17.4331</v>
-      </c>
-      <c r="G183" s="3">
-        <v>13.9129</v>
-      </c>
+        <v>22.297999999999998</v>
+      </c>
+      <c r="G183" s="2"/>
       <c r="H183" s="3">
-        <v>0.47793000000000002</v>
+        <v>0.55571000000000004</v>
       </c>
       <c r="I183" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J183" s="17">
-        <v>380</v>
+        <v>109</v>
       </c>
       <c r="K183">
-        <v>122567</v>
+        <v>22300</v>
       </c>
       <c r="L183" s="17">
-        <v>251744</v>
+        <v>41141</v>
       </c>
       <c r="U183" t="s">
         <v>102</v>
       </c>
       <c r="V183" t="s">
-        <v>102</v>
+        <v>251</v>
       </c>
     </row>
     <row r="184" spans="1:22">
       <c r="A184" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B184" t="s">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="C184" s="3">
-        <v>1968</v>
-      </c>
-      <c r="E184" s="17"/>
+        <v>1985</v>
+      </c>
+      <c r="E184" s="5">
+        <v>116493</v>
+      </c>
       <c r="F184" s="3">
-        <v>23.244</v>
-      </c>
-      <c r="G184" s="2"/>
+        <v>16.892499999999998</v>
+      </c>
+      <c r="G184" s="3">
+        <v>16.498999999999999</v>
+      </c>
       <c r="H184" s="3">
-        <v>0.48426999999999998</v>
+        <v>0.50966999999999996</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J184" s="17">
-        <v>128</v>
+        <v>275</v>
+      </c>
+      <c r="J184" s="5">
+        <v>275</v>
       </c>
       <c r="K184">
-        <v>27821</v>
-      </c>
-      <c r="L184" s="17">
-        <v>51710</v>
+        <v>82600</v>
+      </c>
+      <c r="L184" s="5">
+        <v>164000</v>
       </c>
       <c r="U184" t="s">
         <v>102</v>
       </c>
       <c r="V184" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="185" spans="1:22">
       <c r="A185" t="s">
-        <v>28</v>
-      </c>
-      <c r="B185" t="s">
-        <v>309</v>
+        <v>10</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="C185" s="3">
-        <v>1965</v>
-      </c>
-      <c r="E185" s="17"/>
-      <c r="F185" s="3">
-        <v>22.297999999999998</v>
-      </c>
-      <c r="G185" s="2"/>
-      <c r="H185" s="3">
-        <v>0.55571000000000004</v>
-      </c>
-      <c r="I185" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J185" s="17">
-        <v>109</v>
-      </c>
-      <c r="K185">
-        <v>22300</v>
-      </c>
-      <c r="L185" s="17">
-        <v>41141</v>
+        <v>1959</v>
+      </c>
+      <c r="G185" s="5">
+        <v>15.8095</v>
+      </c>
+      <c r="H185" s="5">
+        <v>0.41126000000000001</v>
       </c>
       <c r="U185" t="s">
         <v>102</v>
       </c>
       <c r="V185" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="186" spans="1:22">
       <c r="A186" t="s">
-        <v>13</v>
-      </c>
-      <c r="B186" t="s">
-        <v>79</v>
+        <v>4</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="C186" s="3">
-        <v>1985</v>
-      </c>
-      <c r="E186" s="5">
-        <v>116493</v>
-      </c>
-      <c r="F186" s="3">
-        <v>16.892499999999998</v>
-      </c>
-      <c r="G186" s="3">
-        <v>16.498999999999999</v>
-      </c>
-      <c r="H186" s="3">
-        <v>0.50966999999999996</v>
-      </c>
-      <c r="I186" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="J186" s="5">
-        <v>275</v>
-      </c>
-      <c r="K186">
-        <v>82600</v>
-      </c>
-      <c r="L186" s="5">
-        <v>164000</v>
-      </c>
+        <v>1959</v>
+      </c>
+      <c r="F186" s="5">
+        <v>28.176500000000001</v>
+      </c>
+      <c r="G186" s="5">
+        <v>15.8095</v>
+      </c>
+      <c r="H186" s="5"/>
       <c r="U186" t="s">
         <v>102</v>
       </c>
       <c r="V186" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="187" spans="1:22">
@@ -13547,66 +13528,19 @@
         <v>10</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>310</v>
+        <v>91</v>
       </c>
       <c r="C187" s="3">
-        <v>1959</v>
-      </c>
-      <c r="G187" s="5">
-        <v>15.8095</v>
-      </c>
-      <c r="H187" s="5">
-        <v>0.41126000000000001</v>
+        <v>1961</v>
+      </c>
+      <c r="F187" s="5">
+        <v>27.027799999999999</v>
       </c>
       <c r="U187" t="s">
         <v>102</v>
       </c>
       <c r="V187" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="188" spans="1:22">
-      <c r="A188" t="s">
-        <v>4</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C188" s="3">
-        <v>1959</v>
-      </c>
-      <c r="F188" s="5">
-        <v>28.176500000000001</v>
-      </c>
-      <c r="G188" s="5">
-        <v>15.8095</v>
-      </c>
-      <c r="H188" s="5"/>
-      <c r="U188" t="s">
-        <v>102</v>
-      </c>
-      <c r="V188" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="189" spans="1:22">
-      <c r="A189" t="s">
-        <v>10</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C189" s="3">
-        <v>1961</v>
-      </c>
-      <c r="F189" s="5">
-        <v>27.027799999999999</v>
-      </c>
-      <c r="U189" t="s">
-        <v>102</v>
-      </c>
-      <c r="V189" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -13652,19 +13586,19 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" t="s">
         <v>281</v>
-      </c>
-      <c r="E1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -13987,19 +13921,19 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" t="s">
         <v>281</v>
-      </c>
-      <c r="E1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -14109,19 +14043,19 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:6">
